--- a/results/mp/logistic/corona/confidence/42/0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,24 +49,21 @@
     <t>kill</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
@@ -76,343 +73,322 @@
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>cut</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>as</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>at</t>
   </si>
   <si>
     <t>'</t>
-  </si>
-  <si>
-    <t>is</t>
   </si>
 </sst>
 </file>
@@ -770,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,10 +754,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -839,13 +815,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7773972602739726</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C3">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D3">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -857,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -889,13 +865,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7586206896551724</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -907,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -939,13 +915,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7368421052631579</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -957,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -981,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -989,13 +965,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7333333333333333</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1007,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>0.925</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1031,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1039,13 +1015,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6521739130434783</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1057,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.9230769230769231</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1081,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1089,13 +1065,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6052631578947368</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1107,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1131,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1139,13 +1115,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5882352941176471</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1157,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.8485639686684073</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L9">
-        <v>325</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>325</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1181,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1189,13 +1165,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1207,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.8421052631578947</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1231,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1239,13 +1215,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5769230769230769</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1257,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.8414634146341463</v>
+        <v>0.8375</v>
       </c>
       <c r="L11">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="M11">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1281,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1289,13 +1265,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5675675675675675</v>
+        <v>0.52</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1307,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.839622641509434</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L12">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M12">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1331,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1339,13 +1315,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.52</v>
+        <v>0.4656084656084656</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1357,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.8181818181818182</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1381,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1389,37 +1365,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4627659574468085</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C14">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.8169014084507042</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L14">
-        <v>116</v>
+        <v>310</v>
       </c>
       <c r="M14">
-        <v>116</v>
+        <v>310</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1431,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1439,13 +1415,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4534883720930232</v>
+        <v>0.436046511627907</v>
       </c>
       <c r="C15">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D15">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1457,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.8125</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1481,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1489,13 +1465,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4313725490196079</v>
+        <v>0.35</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1507,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>26</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L16">
         <v>29</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16">
-        <v>0.7948717948717948</v>
-      </c>
-      <c r="L16">
-        <v>31</v>
-      </c>
       <c r="M16">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1531,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1539,13 +1515,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3898305084745763</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1557,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.7931034482758621</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1581,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1589,13 +1565,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3454545454545455</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1607,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.7875</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L18">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="M18">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1631,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1639,13 +1615,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3392857142857143</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1657,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1681,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1689,13 +1665,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.302013422818792</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1707,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.7708333333333334</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1731,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1739,13 +1715,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2666666666666667</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1757,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.7674418604651163</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1781,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1789,13 +1765,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1888888888888889</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C22">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D22">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1807,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1831,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1839,13 +1815,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1625</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1857,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.7407407407407407</v>
+        <v>0.765625</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1881,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1889,7 +1865,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1547619047619048</v>
+        <v>0.1045576407506702</v>
       </c>
       <c r="C24">
         <v>39</v>
@@ -1907,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.7265625</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L24">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1931,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1939,38 +1915,38 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1444444444444444</v>
+        <v>0.05</v>
       </c>
       <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>285</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L25">
         <v>13</v>
       </c>
-      <c r="D25">
+      <c r="M25">
         <v>13</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>77</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K25">
-        <v>0.725</v>
-      </c>
-      <c r="L25">
-        <v>29</v>
-      </c>
-      <c r="M25">
-        <v>29</v>
-      </c>
       <c r="N25">
         <v>1</v>
       </c>
@@ -1981,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1989,37 +1965,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.07506702412868632</v>
+        <v>0.02191464821222607</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>345</v>
+        <v>848</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K26">
-        <v>0.7142857142857143</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2031,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2039,37 +2015,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.02261712439418417</v>
+        <v>0.01749271137026239</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="E27">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="F27">
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>605</v>
+        <v>3033</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>0.7021276595744681</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2081,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2089,37 +2065,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01833568406205924</v>
+        <v>0.01523487092678798</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E28">
-        <v>0.46</v>
+        <v>0.31</v>
       </c>
       <c r="F28">
-        <v>0.54</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>696</v>
+        <v>2327</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K28">
-        <v>0.6984126984126984</v>
+        <v>0.7</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2131,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2139,37 +2115,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01813471502590673</v>
+        <v>0.01516587677725119</v>
       </c>
       <c r="C29">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E29">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="F29">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>3032</v>
+        <v>2078</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K29">
-        <v>0.6944444444444444</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2181,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2189,28 +2165,28 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01715039577836412</v>
+        <v>0.0118006993006993</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E30">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="F30">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>745</v>
+        <v>2261</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K30">
         <v>0.6842105263157895</v>
@@ -2239,28 +2215,28 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01651143099068586</v>
+        <v>0.0110062893081761</v>
       </c>
       <c r="C31">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E31">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="F31">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2323</v>
+        <v>1258</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K31">
         <v>0.6818181818181818</v>
@@ -2289,37 +2265,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01642178046672429</v>
+        <v>0.009237421383647798</v>
       </c>
       <c r="C32">
+        <v>47</v>
+      </c>
+      <c r="D32">
+        <v>124</v>
+      </c>
+      <c r="E32">
+        <v>0.62</v>
+      </c>
+      <c r="F32">
+        <v>0.38</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>5041</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L32">
         <v>19</v>
       </c>
-      <c r="D32">
-        <v>23</v>
-      </c>
-      <c r="E32">
-        <v>0.17</v>
-      </c>
-      <c r="F32">
-        <v>0.83</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1138</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K32">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="L32">
-        <v>15</v>
-      </c>
       <c r="M32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2331,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2339,37 +2315,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01607347876004592</v>
+        <v>0.008793969849246231</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E33">
-        <v>0.44</v>
+        <v>0.73</v>
       </c>
       <c r="F33">
-        <v>0.5600000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>857</v>
+        <v>2367</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>0.6785714285714286</v>
+        <v>0.675</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2381,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2389,37 +2365,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01605288007554297</v>
+        <v>0.008527918781725888</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="E34">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
       <c r="F34">
-        <v>0.5800000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>2084</v>
+        <v>4883</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K34">
-        <v>0.6411764705882353</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L34">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2431,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>122</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2439,37 +2415,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.01146384479717813</v>
+        <v>0.007268553940321346</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="E35">
-        <v>0.32</v>
+        <v>0.76</v>
       </c>
       <c r="F35">
-        <v>0.6799999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1121</v>
+        <v>2595</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K35">
-        <v>0.64</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2481,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2489,37 +2465,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01138852387209812</v>
+        <v>0.007019185774450164</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E36">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="F36">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>2257</v>
+        <v>2122</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K36">
-        <v>0.6276150627615062</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L36">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2531,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2539,49 +2515,49 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.01026856240126382</v>
+        <v>0.006984126984126984</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E37">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="F37">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1253</v>
+        <v>3128</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K37">
-        <v>0.6020408163265306</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L37">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="M37">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="N37">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2589,287 +2565,167 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.009611612397018439</v>
+        <v>0.006574313219065508</v>
       </c>
       <c r="C38">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D38">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E38">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="F38">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>5049</v>
+        <v>4231</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K38">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="L38">
+        <v>17</v>
+      </c>
+      <c r="M38">
+        <v>17</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39">
+        <v>0.606694560669456</v>
+      </c>
+      <c r="L39">
+        <v>145</v>
+      </c>
+      <c r="M39">
+        <v>145</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K40">
+        <v>0.6</v>
+      </c>
+      <c r="L40">
+        <v>39</v>
+      </c>
+      <c r="M40">
+        <v>39</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="L41">
+        <v>16</v>
+      </c>
+      <c r="M41">
+        <v>16</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K42">
+        <v>0.5884353741496599</v>
+      </c>
+      <c r="L42">
+        <v>173</v>
+      </c>
+      <c r="M42">
+        <v>174</v>
+      </c>
+      <c r="N42">
+        <v>0.99</v>
+      </c>
+      <c r="O42">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43">
         <v>0.5833333333333334</v>
       </c>
-      <c r="L38">
+      <c r="L43">
         <v>14</v>
       </c>
-      <c r="M38">
+      <c r="M43">
         <v>14</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.008620689655172414</v>
-      </c>
-      <c r="C39">
-        <v>27</v>
-      </c>
-      <c r="D39">
-        <v>96</v>
-      </c>
-      <c r="E39">
-        <v>0.72</v>
-      </c>
-      <c r="F39">
-        <v>0.28</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>3105</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K39">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L39">
-        <v>14</v>
-      </c>
-      <c r="M39">
-        <v>14</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.008173273395995096</v>
-      </c>
-      <c r="C40">
-        <v>40</v>
-      </c>
-      <c r="D40">
-        <v>142</v>
-      </c>
-      <c r="E40">
-        <v>0.72</v>
-      </c>
-      <c r="F40">
-        <v>0.28</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>4854</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K40">
-        <v>0.5757575757575758</v>
-      </c>
-      <c r="L40">
-        <v>19</v>
-      </c>
-      <c r="M40">
-        <v>19</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.007966260543580132</v>
-      </c>
-      <c r="C41">
-        <v>17</v>
-      </c>
-      <c r="D41">
-        <v>41</v>
-      </c>
-      <c r="E41">
-        <v>0.59</v>
-      </c>
-      <c r="F41">
-        <v>0.41</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>2117</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K41">
-        <v>0.574468085106383</v>
-      </c>
-      <c r="L41">
-        <v>54</v>
-      </c>
-      <c r="M41">
-        <v>54</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.007268553940321346</v>
-      </c>
-      <c r="C42">
-        <v>19</v>
-      </c>
-      <c r="D42">
-        <v>78</v>
-      </c>
-      <c r="E42">
-        <v>0.76</v>
-      </c>
-      <c r="F42">
-        <v>0.24</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>2595</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K42">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L42">
-        <v>16</v>
-      </c>
-      <c r="M42">
-        <v>16</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.006794751640112465</v>
-      </c>
-      <c r="C43">
-        <v>29</v>
-      </c>
-      <c r="D43">
-        <v>89</v>
-      </c>
-      <c r="E43">
-        <v>0.67</v>
-      </c>
-      <c r="F43">
-        <v>0.33</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>4239</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43">
-        <v>0.5652173913043478</v>
-      </c>
-      <c r="L43">
-        <v>13</v>
-      </c>
-      <c r="M43">
-        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2885,41 +2741,17 @@
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.005835764902042517</v>
-      </c>
-      <c r="C44">
-        <v>14</v>
-      </c>
-      <c r="D44">
-        <v>60</v>
-      </c>
-      <c r="E44">
-        <v>0.77</v>
-      </c>
-      <c r="F44">
-        <v>0.23</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>2385</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K44">
-        <v>0.5652173913043478</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2931,21 +2763,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K45">
-        <v>0.5571428571428572</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L45">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2957,21 +2789,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K46">
-        <v>0.5555555555555556</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2983,21 +2815,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K47">
-        <v>0.5555555555555556</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3009,21 +2841,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K48">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3035,21 +2867,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K49">
-        <v>0.5393258426966292</v>
+        <v>0.5</v>
       </c>
       <c r="L49">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M49">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3061,21 +2893,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K50">
-        <v>0.5384615384615384</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3087,47 +2919,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K51">
-        <v>0.5384615384615384</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="L51">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K52">
-        <v>0.4901960784313725</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3139,21 +2971,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K53">
-        <v>0.4516129032258064</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3165,47 +2997,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K54">
-        <v>0.4390243902439024</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="L54">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K55">
-        <v>0.4358974358974359</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L55">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3217,21 +3049,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K56">
-        <v>0.410958904109589</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L56">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M56">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3243,21 +3075,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K57">
-        <v>0.4</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L57">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M57">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3269,47 +3101,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K58">
-        <v>0.3448275862068966</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L58">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N58">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K59">
-        <v>0.2982456140350877</v>
+        <v>0.203125</v>
       </c>
       <c r="L59">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M59">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3321,21 +3153,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K60">
-        <v>0.234375</v>
+        <v>0.1693548387096774</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3347,73 +3179,73 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>49</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K61">
-        <v>0.2295081967213115</v>
+        <v>0.1415094339622641</v>
       </c>
       <c r="L61">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M61">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K62">
-        <v>0.160377358490566</v>
+        <v>0.09219858156028368</v>
       </c>
       <c r="L62">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N62">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="O62">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>89</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K63">
-        <v>0.1165644171779141</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="L63">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M63">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3425,21 +3257,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K64">
-        <v>0.1150442477876106</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M64">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3451,709 +3283,709 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>100</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K65">
-        <v>0.06493506493506493</v>
+        <v>0.0695970695970696</v>
       </c>
       <c r="L65">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M65">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>288</v>
+        <v>508</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K66">
-        <v>0.05902777777777778</v>
+        <v>0.05519480519480519</v>
       </c>
       <c r="L66">
         <v>17</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N66">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>271</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K67">
-        <v>0.05301204819277108</v>
+        <v>0.05048076923076923</v>
       </c>
       <c r="L67">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M67">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N67">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="O67">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K68">
-        <v>0.04395604395604396</v>
+        <v>0.04513888888888889</v>
       </c>
       <c r="L68">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N68">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O68">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>522</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K69">
-        <v>0.03762541806020067</v>
+        <v>0.04511278195488722</v>
       </c>
       <c r="L69">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M69">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="N69">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O69">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>1151</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K70">
-        <v>0.0360576923076923</v>
+        <v>0.03855421686746988</v>
       </c>
       <c r="L70">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M70">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K71">
-        <v>0.02691511387163561</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="L71">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M71">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N71">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O71">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>470</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K72">
-        <v>0.02578268876611418</v>
+        <v>0.02540650406504065</v>
       </c>
       <c r="L72">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M72">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N72">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="O72">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>529</v>
+        <v>959</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K73">
-        <v>0.02441505595116989</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="L73">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M73">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N73">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="O73">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>959</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K74">
-        <v>0.02391441157960982</v>
+        <v>0.02407407407407407</v>
       </c>
       <c r="L74">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M74">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="N74">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="O74">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>1551</v>
+        <v>527</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="K75">
-        <v>0.02325581395348837</v>
+        <v>0.02351485148514851</v>
       </c>
       <c r="L75">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="M75">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="N75">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="O75">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>630</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="K76">
-        <v>0.02223059532780708</v>
+        <v>0.02330743618201998</v>
       </c>
       <c r="L76">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="M76">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="N76">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>2595</v>
+        <v>880</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="K77">
-        <v>0.02173913043478261</v>
+        <v>0.02317880794701987</v>
       </c>
       <c r="L77">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="M77">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="N77">
-        <v>0.72</v>
+        <v>0.93</v>
       </c>
       <c r="O77">
-        <v>0.28</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>3105</v>
+        <v>590</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="K78">
-        <v>0.02152317880794702</v>
+        <v>0.02223059532780708</v>
       </c>
       <c r="L78">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M78">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="N78">
-        <v>0.93</v>
+        <v>0.76</v>
       </c>
       <c r="O78">
-        <v>0.06999999999999995</v>
+        <v>0.24</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>591</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="K79">
-        <v>0.02058111380145278</v>
+        <v>0.02097315436241611</v>
       </c>
       <c r="L79">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="M79">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="N79">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="O79">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>4854</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K80">
-        <v>0.02027027027027027</v>
+        <v>0.01837270341207349</v>
       </c>
       <c r="L80">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M80">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N80">
-        <v>0.84</v>
+        <v>0.64</v>
       </c>
       <c r="O80">
-        <v>0.16</v>
+        <v>0.36</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>1015</v>
+        <v>748</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="K81">
-        <v>0.02005012531328321</v>
+        <v>0.01738122827346466</v>
       </c>
       <c r="L81">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M81">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N81">
-        <v>0.84</v>
+        <v>0.44</v>
       </c>
       <c r="O81">
-        <v>0.16</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>782</v>
+        <v>848</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="K82">
-        <v>0.01892225421637186</v>
+        <v>0.0166147455867082</v>
       </c>
       <c r="L82">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="M82">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="N82">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="O82">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>2385</v>
+        <v>947</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>0.01886792452830189</v>
+        <v>0.01604651162790698</v>
       </c>
       <c r="L83">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="M83">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>884</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>0.01865284974093264</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="L84">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="M84">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="N84">
-        <v>0.86</v>
+        <v>0.7</v>
       </c>
       <c r="O84">
-        <v>0.14</v>
+        <v>0.3</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>947</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="K85">
-        <v>0.01802507836990596</v>
+        <v>0.01567749160134379</v>
       </c>
       <c r="L85">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M85">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N85">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="O85">
-        <v>0.36</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>1253</v>
+        <v>879</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="K86">
-        <v>0.01661129568106312</v>
+        <v>0.01563240170535291</v>
       </c>
       <c r="L86">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M86">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="N86">
-        <v>0.88</v>
+        <v>0.51</v>
       </c>
       <c r="O86">
-        <v>0.12</v>
+        <v>0.49</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>888</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="K87">
-        <v>0.01590623691921306</v>
+        <v>0.01504493942946463</v>
       </c>
       <c r="L87">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="M87">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="N87">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="O87">
-        <v>0.12</v>
+        <v>0.38</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>2351</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K88">
-        <v>0.01510574018126888</v>
+        <v>0.01487414187643021</v>
       </c>
       <c r="L88">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M88">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N88">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="O88">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>978</v>
+        <v>861</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K89">
-        <v>0.01395673412421493</v>
+        <v>0.01433185304804199</v>
       </c>
       <c r="L89">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="M89">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="N89">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="O89">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>4239</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="K90">
-        <v>0.01309616888193901</v>
+        <v>0.01412714429868819</v>
       </c>
       <c r="L90">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="M90">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="N90">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
       <c r="O90">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>5049</v>
+        <v>977</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K91">
-        <v>0.01185395922238027</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="L91">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M91">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="N91">
-        <v>0.42</v>
+        <v>0.55</v>
       </c>
       <c r="O91">
-        <v>0.5800000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>2084</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -4161,129 +3993,103 @@
         <v>41</v>
       </c>
       <c r="K92">
-        <v>0.01138852387209812</v>
+        <v>0.00979934671021932</v>
       </c>
       <c r="L92">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M92">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="N92">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="O92">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>2257</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K93">
-        <v>0.01120971508640822</v>
+        <v>0.009202453987730062</v>
       </c>
       <c r="L93">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M93">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N93">
-        <v>0.59</v>
+        <v>0.44</v>
       </c>
       <c r="O93">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>2117</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="K94">
-        <v>0.009601181683899557</v>
+        <v>0.006828851899274435</v>
       </c>
       <c r="L94">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M94">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N94">
-        <v>0.59</v>
+        <v>0.31</v>
       </c>
       <c r="O94">
-        <v>0.41</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>1341</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K95">
-        <v>0.007264957264957265</v>
+        <v>0.006550933508024894</v>
       </c>
       <c r="L95">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M95">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="N95">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="O95">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>2323</v>
-      </c>
-    </row>
-    <row r="96" spans="10:17">
-      <c r="J96" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K96">
-        <v>0.006227466404457555</v>
-      </c>
-      <c r="L96">
-        <v>19</v>
-      </c>
-      <c r="M96">
-        <v>75</v>
-      </c>
-      <c r="N96">
-        <v>0.25</v>
-      </c>
-      <c r="O96">
-        <v>0.75</v>
-      </c>
-      <c r="P96" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q96">
-        <v>3032</v>
+        <v>3033</v>
       </c>
     </row>
   </sheetData>
